--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39072969-9DF2-415F-9B65-CB065EB4553A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A86D27-695C-49D9-A9C2-B9CF306181FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,67 +16,27 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Anmerkung</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>LV-Einheit</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
-    <t>Softwarekonzept</t>
-  </si>
-  <si>
-    <t>Abschlussbericht</t>
-  </si>
-  <si>
-    <t>Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t>Systemtest (fremdes System)</t>
-  </si>
-  <si>
-    <t>Einarbeitung, Dokumentation lesen</t>
-  </si>
-  <si>
-    <t>Software/System Design und Architektur</t>
-  </si>
-  <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Konfiguration und Deployment</t>
-  </si>
-  <si>
-    <t>Koordination und Projektmanagement</t>
-  </si>
-  <si>
-    <t>Primäre Tätigkeit</t>
-  </si>
-  <si>
-    <t>Teilnahme an Vorbesprechung</t>
   </si>
   <si>
     <r>
@@ -93,16 +53,76 @@
     </r>
   </si>
   <si>
+    <t>Primäre Tätigkeit</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>LV-Einheit</t>
+  </si>
+  <si>
+    <t>Teilnahme an Vorbesprechung</t>
+  </si>
+  <si>
+    <t>Softwarekonzept</t>
+  </si>
+  <si>
     <t>Einlesen in die Aufgabenstellung</t>
   </si>
   <si>
     <t>Teilnahme am ersten "richtigen" PS</t>
   </si>
   <si>
+    <t>Koordination und Projektmanagement</t>
+  </si>
+  <si>
+    <t>Teambesprechung für Konzeptbeschreibung</t>
+  </si>
+  <si>
     <t>Einlesen in Beispiele &amp; Verfassen eines Systemüberblicks</t>
   </si>
   <si>
-    <t>Teambesprechung für Konzeptbeschreibung</t>
+    <t>Vorbereitung für Workshop REST API</t>
+  </si>
+  <si>
+    <t>Workshop REST API</t>
+  </si>
+  <si>
+    <t>Teambesprechung Konzept + Skeleton</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Versuch mysql zu implementieren</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abschlussbericht</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>Software/System Design und Architektur</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Konfiguration und Deployment</t>
   </si>
 </sst>
 </file>
@@ -515,31 +535,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -553,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -567,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -581,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -592,10 +612,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -609,28 +629,64 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="8">
+        <v>43905</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>43907</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8"/>
@@ -5619,17 +5675,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="34.69921875" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5653,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5661,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5669,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5677,7 +5733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5685,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5693,7 +5749,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5701,7 +5757,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5709,7 +5765,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5717,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A86D27-695C-49D9-A9C2-B9CF306181FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFF9A10-8928-47D1-B9FE-F8D56F6A8821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
-    <t>Datum</t>
+    <t>.</t>
   </si>
   <si>
     <r>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Versuch mysql zu implementieren</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Implementierung von UML</t>
   </si>
   <si>
     <t>ID</t>
@@ -531,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1003"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -689,14 +695,32 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>43913</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>43919</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8"/>
@@ -5649,7 +5673,12 @@
       <c r="D1002" s="3"/>
     </row>
     <row r="1003" spans="1:4">
-      <c r="A1003" s="2"/>
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="7"/>
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5661,7 +5690,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1002</xm:sqref>
+          <xm:sqref>C2:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5682,10 +5711,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5709,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5717,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5725,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5733,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5741,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5757,7 +5786,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5765,7 +5794,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFF9A10-8928-47D1-B9FE-F8D56F6A8821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C6C719-5295-4DAE-B90C-40AE6899DE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>.</t>
   </si>
@@ -104,6 +104,15 @@
     <t>Implementierung von UML</t>
   </si>
   <si>
+    <t>Einarbeitung, Dokumentation lesen</t>
+  </si>
+  <si>
+    <t>erneute Einarbeitung in REST API</t>
+  </si>
+  <si>
+    <t>Versuch Profilfunktionen zu implementieren</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -117,9 +126,6 @@
   </si>
   <si>
     <t>Abschlusspräsentation</t>
-  </si>
-  <si>
-    <t>Einarbeitung, Dokumentation lesen</t>
   </si>
   <si>
     <t>Software/System Design und Architektur</t>
@@ -541,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -723,14 +729,32 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
@@ -5711,10 +5735,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5738,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5746,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5754,7 +5778,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5762,7 +5786,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5770,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5786,7 +5810,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5794,7 +5818,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C6C719-5295-4DAE-B90C-40AE6899DE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D704EA6D-A509-4909-BFC2-940BB332178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>.</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Versuch Profilfunktionen zu implementieren</t>
+  </si>
+  <si>
+    <t>Profilinformationen implementiert</t>
+  </si>
+  <si>
+    <t>Profilinformationen bearbeitet</t>
   </si>
   <si>
     <t>ID</t>
@@ -547,7 +553,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -757,19 +763,46 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
@@ -5735,10 +5768,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5762,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5770,7 +5803,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5778,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5794,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5810,7 +5843,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5818,7 +5851,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D704EA6D-A509-4909-BFC2-940BB332178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA30B05-44AF-4325-93CB-ABF3EC3ECDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>.</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Profilinformationen bearbeitet</t>
+  </si>
+  <si>
+    <t>Versuch Passwortänderung zu implementieren</t>
+  </si>
+  <si>
+    <t>Change Passwort Feld implementiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -553,7 +559,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -805,14 +811,32 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>43932</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
@@ -5768,10 +5792,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5795,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5803,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5811,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5827,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5843,7 +5867,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5851,7 +5875,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA30B05-44AF-4325-93CB-ABF3EC3ECDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF60869-E6AD-4B75-9023-2B7B10AB09AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>.</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Change Passwort Feld implementiert</t>
+  </si>
+  <si>
+    <t>Weitere Arbeiten am Passwort</t>
+  </si>
+  <si>
+    <t>Profiländerungen fertig gestellt &amp; Fehler behoben</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>Versuch Teamedit zu korrigieren</t>
   </si>
   <si>
     <t>ID</t>
@@ -555,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -839,34 +851,88 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>43940</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>43940</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8"/>
@@ -5761,6 +5827,7 @@
     <row r="1004" spans="1:4">
       <c r="A1004" s="2"/>
     </row>
+    <row r="1005" spans="1:4" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5792,10 +5859,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5819,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5827,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5835,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5851,7 +5918,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5867,7 +5934,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5875,7 +5942,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF60869-E6AD-4B75-9023-2B7B10AB09AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08E050D-B967-40C2-BD5E-5B76C313DB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>.</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Versuch Teamedit zu korrigieren</t>
+  </si>
+  <si>
+    <t>Anfang Badges implemeniteren</t>
+  </si>
+  <si>
+    <t>Badges implementiert</t>
+  </si>
+  <si>
+    <t>Badges implementiert und designed</t>
   </si>
   <si>
     <t>ID</t>
@@ -571,7 +580,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -935,24 +944,60 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>43952</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>43952</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>43953</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>43954</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8"/>
@@ -5859,10 +5904,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5886,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5894,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5902,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5918,7 +5963,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5934,7 +5979,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5942,7 +5987,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08E050D-B967-40C2-BD5E-5B76C313DB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D044509F-FA52-4D55-8EE4-FF6D20E440D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>.</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Badges implementiert und designed</t>
+  </si>
+  <si>
+    <t>Statistiken implementiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -579,8 +582,8 @@
   <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1000,19 +1003,46 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>43959</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>43960</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8"/>
@@ -5904,10 +5934,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5931,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5939,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5947,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5963,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5979,7 +6009,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5987,7 +6017,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D044509F-FA52-4D55-8EE4-FF6D20E440D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF77E6F4-5296-47D2-96F4-744B789E1A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>.</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Statistiken implementiert</t>
+  </si>
+  <si>
+    <t>Badge implementiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -582,8 +585,8 @@
   <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1045,14 +1048,32 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>43964</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8"/>
@@ -5934,10 +5955,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5961,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5969,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5977,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5993,7 +6014,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6009,7 +6030,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6017,7 +6038,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF77E6F4-5296-47D2-96F4-744B789E1A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B15C10-F8ED-4A78-BC13-B0736278F0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>.</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Badge implementiert</t>
+  </si>
+  <si>
+    <t>Präsentation für LV-Einheit vorbereiten</t>
+  </si>
+  <si>
+    <t>Scheduled Statistik implementiert</t>
+  </si>
+  <si>
+    <t>Badgeauswertung implementiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -582,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1076,34 +1085,88 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>43972</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>
@@ -5921,9 +5984,14 @@
       <c r="D1003" s="3"/>
     </row>
     <row r="1004" spans="1:4">
-      <c r="A1004" s="2"/>
-    </row>
-    <row r="1005" spans="1:4" ht="15.75"/>
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="7"/>
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:4" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5934,7 +6002,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1003</xm:sqref>
+          <xm:sqref>C2:C1004</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5955,10 +6023,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5982,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5990,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5998,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6014,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6030,7 +6098,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6038,7 +6106,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B15C10-F8ED-4A78-BC13-B0736278F0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71279CD-2072-487B-BBBA-09396E64B228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>.</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>Badgeauswertung implementiert</t>
+  </si>
+  <si>
+    <t>Badgauswertung implementiert</t>
+  </si>
+  <si>
+    <t>Badges fertiggestellt, Statistiken hinzugefügt</t>
+  </si>
+  <si>
+    <t>Statistikfunktionen implementiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -594,8 +603,8 @@
   <dimension ref="A1:D1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1169,24 +1178,60 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>43974</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>43975</v>
+      </c>
+      <c r="B42" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>43975</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>43976</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8"/>
@@ -6023,10 +6068,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6050,7 +6095,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6058,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6066,7 +6111,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6082,7 +6127,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6098,7 +6143,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6106,7 +6151,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71279CD-2072-487B-BBBA-09396E64B228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3019EA52-B7B7-454F-9563-6F639E92E0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>.</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Statistikfunktionen implementiert</t>
+  </si>
+  <si>
+    <t>Tests implementiert</t>
+  </si>
+  <si>
+    <t>Tests implemntiert</t>
   </si>
   <si>
     <t>ID</t>
@@ -604,7 +610,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1234,19 +1240,46 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>43977</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>43978</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>43978</v>
+      </c>
+      <c r="B47" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8"/>
@@ -6068,10 +6101,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6095,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6103,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6111,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6127,7 +6160,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6143,7 +6176,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6151,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3019EA52-B7B7-454F-9563-6F639E92E0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{627FAE6C-9D25-4EA1-8779-39584005F423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>.</t>
   </si>
@@ -176,13 +176,19 @@
     <t>Tests implemntiert</t>
   </si>
   <si>
+    <t>Systemtest (fremdes System)</t>
+  </si>
+  <si>
+    <t>Abnahmetest &amp; Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Teambesprechung (1 Stunde weniger)</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>Systemtest (fremdes System)</t>
   </si>
   <si>
     <t>Abschlussbericht</t>
@@ -606,11 +612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1006"/>
+  <dimension ref="A1:D1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1282,19 +1288,46 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A48" s="8">
+        <v>43985</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="8">
+        <v>43989</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>
@@ -6067,9 +6100,14 @@
       <c r="D1004" s="3"/>
     </row>
     <row r="1005" spans="1:4">
-      <c r="A1005" s="2"/>
-    </row>
-    <row r="1006" spans="1:4" ht="15.75"/>
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="7"/>
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:4" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6080,7 +6118,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1004</xm:sqref>
+          <xm:sqref>C2:C1005</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6101,10 +6139,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6128,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6136,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6144,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6160,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6176,7 +6214,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6184,7 +6222,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Gerhold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4. Semester\Software Engineering\PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627FAE6C-9D25-4EA1-8779-39584005F423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{355F3C3D-21C4-48A8-9583-1CC63D254E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>.</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Teambesprechung (1 Stunde weniger)</t>
+  </si>
+  <si>
+    <t>Department Statistiken auf Teambasis implementiert</t>
+  </si>
+  <si>
+    <t>Tests und Statistiken implementiert</t>
+  </si>
+  <si>
+    <t>Tests und code clean up</t>
   </si>
   <si>
     <t>ID</t>
@@ -612,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1007"/>
+  <dimension ref="A1:D1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -1330,29 +1339,74 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>43994</v>
+      </c>
+      <c r="B51" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B52" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B53" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>
@@ -6105,9 +6159,14 @@
       <c r="D1005" s="3"/>
     </row>
     <row r="1006" spans="1:4">
-      <c r="A1006" s="2"/>
-    </row>
-    <row r="1007" spans="1:4" ht="15.75"/>
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="7"/>
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:4" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6118,7 +6177,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1005</xm:sqref>
+          <xm:sqref>C2:C1006</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6139,10 +6198,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6174,7 +6233,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6182,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6198,7 +6257,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6214,7 +6273,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6222,7 +6281,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
